--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -46,6 +46,45 @@
     <t>备注</t>
   </si>
   <si>
+    <t>北京易瑞盈商贸有限公司</t>
+  </si>
+  <si>
+    <t>周华农</t>
+  </si>
+  <si>
+    <t>13925668956</t>
+  </si>
+  <si>
+    <t>北京市丰台区大井东里</t>
+  </si>
+  <si>
+    <t>极好</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>第一条记录</t>
+  </si>
+  <si>
+    <t>天津鼎传码行工作室</t>
+  </si>
+  <si>
+    <t>周先生</t>
+  </si>
+  <si>
+    <t>13920953285</t>
+  </si>
+  <si>
+    <t>天津南开</t>
+  </si>
+  <si>
+    <t>无税</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
     <t>北京南开戈德信息技术有限公司</t>
   </si>
   <si>
@@ -58,46 +97,7 @@
     <t>北京海淀区</t>
   </si>
   <si>
-    <t>极好</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>北京易瑞盈商贸有限公司</t>
-  </si>
-  <si>
-    <t>周华农</t>
-  </si>
-  <si>
-    <t>13925668956</t>
-  </si>
-  <si>
-    <t>北京市丰台区大井东里</t>
-  </si>
-  <si>
-    <t>第一条记录</t>
-  </si>
-  <si>
-    <t>天津鼎传码行工作室</t>
-  </si>
-  <si>
-    <t>周先生</t>
-  </si>
-  <si>
-    <t>13920953285</t>
-  </si>
-  <si>
-    <t>天津南开</t>
-  </si>
-  <si>
-    <t>无税</t>
-  </si>
-  <si>
-    <t>天津</t>
+    <t>测试1</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
         <v>0.1500000059604645</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>0.8999999761581421</v>
@@ -548,30 +548,27 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0.1500000059604645</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>0.8999999761581421</v>
@@ -580,6 +577,9 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -568,7 +568,7 @@
         <v>0.1500000059604645</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>0.8999999761581421</v>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>编号</t>
   </si>
@@ -61,6 +61,12 @@
     <t>北京市丰台区大井东里</t>
   </si>
   <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
     <t>极好</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t>测试1</t>
+  </si>
+  <si>
+    <t>0.16</t>
   </si>
 </sst>
 </file>
@@ -516,23 +525,23 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
-        <v>0.1500000059604645</v>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>0.8999999761581421</v>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -540,31 +549,31 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>0.1500000059604645</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>0.8999999761581421</v>
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -572,34 +581,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>0.1500000059604645</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>0.8999999761581421</v>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,23 +627,23 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
-        <v>0.1500000059604645</v>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5">
-        <v>0.8999999761581421</v>
+      <c r="H5" t="s">
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -642,31 +651,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>0.1500000059604645</v>
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>0.8999999761581421</v>
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -674,34 +683,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>0.1500000059604645</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>0.8999999761581421</v>
+      <c r="H7" t="s">
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
   <si>
     <t>编号</t>
   </si>
@@ -49,6 +49,36 @@
     <t>备注</t>
   </si>
   <si>
+    <t>北京南开戈德信息技术有限公司</t>
+  </si>
+  <si>
+    <t>施总</t>
+  </si>
+  <si>
+    <t>13566886652</t>
+  </si>
+  <si>
+    <t>北京海淀区</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>无税</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>极好</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
     <t>北京易瑞盈商贸有限公司</t>
   </si>
   <si>
@@ -61,18 +91,6 @@
     <t>北京市丰台区大井东里</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>极好</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
     <t>第一条记录</t>
   </si>
   <si>
@@ -88,28 +106,19 @@
     <t>天津南开</t>
   </si>
   <si>
-    <t>无税</t>
-  </si>
-  <si>
     <t>天津</t>
   </si>
   <si>
-    <t>北京南开戈德信息技术有限公司</t>
-  </si>
-  <si>
-    <t>施总</t>
-  </si>
-  <si>
-    <t>13566886652</t>
-  </si>
-  <si>
-    <t>北京海淀区</t>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
     <t>0.16</t>
+  </si>
+  <si>
+    <t>白女士</t>
+  </si>
+  <si>
+    <t>第一条记录123</t>
+  </si>
+  <si>
+    <t>更新测试</t>
   </si>
 </sst>
 </file>
@@ -455,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +520,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -529,56 +538,59 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -596,24 +608,21 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -628,59 +637,62 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -695,22 +707,159 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
         <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>编号</t>
   </si>
@@ -49,6 +49,51 @@
     <t>备注</t>
   </si>
   <si>
+    <t>北京易瑞盈商贸有限公司</t>
+  </si>
+  <si>
+    <t>周华农</t>
+  </si>
+  <si>
+    <t>13925668956</t>
+  </si>
+  <si>
+    <t>北京市丰台区大井东里</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>极好</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>第一条记录</t>
+  </si>
+  <si>
+    <t>天津鼎传码行工作室</t>
+  </si>
+  <si>
+    <t>周先生</t>
+  </si>
+  <si>
+    <t>13920953285</t>
+  </si>
+  <si>
+    <t>天津南开</t>
+  </si>
+  <si>
+    <t>无税</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
     <t>北京南开戈德信息技术有限公司</t>
   </si>
   <si>
@@ -61,64 +106,7 @@
     <t>北京海淀区</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>无税</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>极好</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
     <t>测试1</t>
-  </si>
-  <si>
-    <t>北京易瑞盈商贸有限公司</t>
-  </si>
-  <si>
-    <t>周华农</t>
-  </si>
-  <si>
-    <t>13925668956</t>
-  </si>
-  <si>
-    <t>北京市丰台区大井东里</t>
-  </si>
-  <si>
-    <t>第一条记录</t>
-  </si>
-  <si>
-    <t>天津鼎传码行工作室</t>
-  </si>
-  <si>
-    <t>周先生</t>
-  </si>
-  <si>
-    <t>13920953285</t>
-  </si>
-  <si>
-    <t>天津南开</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>白女士</t>
-  </si>
-  <si>
-    <t>第一条记录123</t>
-  </si>
-  <si>
-    <t>更新测试</t>
   </si>
 </sst>
 </file>
@@ -464,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +508,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -538,59 +526,56 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -608,21 +593,24 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -637,62 +625,59 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
       <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -710,156 +695,19 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>编号</t>
   </si>
@@ -31,82 +31,55 @@
     <t>地址</t>
   </si>
   <si>
-    <t>税率</t>
-  </si>
-  <si>
-    <t>含税</t>
-  </si>
-  <si>
-    <t>优惠折扣</t>
-  </si>
-  <si>
-    <t>信用评价</t>
-  </si>
-  <si>
-    <t>地区</t>
+    <t>停用</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>北京易瑞盈商贸有限公司</t>
-  </si>
-  <si>
-    <t>周华农</t>
-  </si>
-  <si>
-    <t>13925668956</t>
-  </si>
-  <si>
-    <t>北京市丰台区大井东里</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>极好</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>第一条记录</t>
-  </si>
-  <si>
-    <t>天津鼎传码行工作室</t>
-  </si>
-  <si>
-    <t>周先生</t>
-  </si>
-  <si>
-    <t>13920953285</t>
-  </si>
-  <si>
-    <t>天津南开</t>
-  </si>
-  <si>
-    <t>无税</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>北京南开戈德信息技术有限公司</t>
-  </si>
-  <si>
-    <t>施总</t>
-  </si>
-  <si>
-    <t>13566886652</t>
-  </si>
-  <si>
-    <t>北京海淀区</t>
-  </si>
-  <si>
-    <t>测试1</t>
+    <t>上海铁洋运输有限公司</t>
+  </si>
+  <si>
+    <t>郭先生</t>
+  </si>
+  <si>
+    <t>13552855536</t>
+  </si>
+  <si>
+    <t>上海黄浦区</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>成都榕成贸易有限公司</t>
+  </si>
+  <si>
+    <t>刘先生</t>
+  </si>
+  <si>
+    <t>13855666856</t>
+  </si>
+  <si>
+    <t>成都武侯区</t>
+  </si>
+  <si>
+    <t>增加测试1</t>
+  </si>
+  <si>
+    <t>江苏顺航有限公司</t>
+  </si>
+  <si>
+    <t>张晓名</t>
+  </si>
+  <si>
+    <t>1356899856</t>
+  </si>
+  <si>
+    <t>江苏常州</t>
   </si>
 </sst>
 </file>
@@ -452,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,15 +436,11 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,221 +462,71 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>编号</t>
   </si>
@@ -82,6 +82,9 @@
     <t>否</t>
   </si>
   <si>
+    <t>23456</t>
+  </si>
+  <si>
     <t>北京南开戈德信息技术有限公司</t>
   </si>
   <si>
@@ -94,49 +97,70 @@
     <t>北京海淀区</t>
   </si>
   <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>北京易瑞盈商贸有限公司</t>
+  </si>
+  <si>
+    <t>周华农</t>
+  </si>
+  <si>
+    <t>13925668956</t>
+  </si>
+  <si>
+    <t>北京市丰台区大井东里</t>
+  </si>
+  <si>
+    <t>第一条记录</t>
+  </si>
+  <si>
+    <t>第一条记录23456</t>
+  </si>
+  <si>
+    <t>天津华新有限公司</t>
+  </si>
+  <si>
+    <t>李先生</t>
+  </si>
+  <si>
+    <t>13555278856</t>
+  </si>
+  <si>
+    <t>南开</t>
+  </si>
+  <si>
+    <t>合并后测试</t>
+  </si>
+  <si>
+    <t>广东电子测试有限公司</t>
+  </si>
+  <si>
+    <t>章先生</t>
+  </si>
+  <si>
+    <t>12345688996</t>
+  </si>
+  <si>
+    <t>北京海淀</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>0.95</t>
   </si>
   <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>23456</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>北京易瑞盈商贸有限公司</t>
-  </si>
-  <si>
-    <t>周华农</t>
-  </si>
-  <si>
-    <t>13925668956</t>
-  </si>
-  <si>
-    <t>北京市丰台区大井东里</t>
-  </si>
-  <si>
-    <t>第一条记录</t>
-  </si>
-  <si>
-    <t>第一条记录23456</t>
-  </si>
-  <si>
-    <t>测试公司名称</t>
-  </si>
-  <si>
-    <t>章先生</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>北京海淀</t>
+    <t>合并后测试1</t>
   </si>
 </sst>
 </file>
@@ -482,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,19 +601,19 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -598,36 +622,36 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -636,13 +660,13 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>21</v>
@@ -653,57 +677,57 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -712,13 +736,13 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>21</v>
@@ -729,19 +753,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -756,13 +780,13 @@
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -770,16 +794,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -793,8 +817,52 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>编号</t>
   </si>
@@ -67,7 +67,7 @@
     <t>0.15</t>
   </si>
   <si>
-    <t>无税</t>
+    <t>是</t>
   </si>
   <si>
     <t>0.9</t>
@@ -82,85 +82,88 @@
     <t>否</t>
   </si>
   <si>
+    <t>广东电子测试有限公司</t>
+  </si>
+  <si>
+    <t>章先生</t>
+  </si>
+  <si>
+    <t>12345688996</t>
+  </si>
+  <si>
+    <t>北京海淀</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>天津华新有限公司</t>
+  </si>
+  <si>
+    <t>李先生</t>
+  </si>
+  <si>
+    <t>13555278856</t>
+  </si>
+  <si>
+    <t>南开</t>
+  </si>
+  <si>
+    <t>较差</t>
+  </si>
+  <si>
+    <t>合并后测试</t>
+  </si>
+  <si>
+    <t>北京易瑞盈商贸有限公司</t>
+  </si>
+  <si>
+    <t>周华农</t>
+  </si>
+  <si>
+    <t>13925668956</t>
+  </si>
+  <si>
+    <t>北京市丰台区大井东里</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>第一条记录</t>
+  </si>
+  <si>
+    <t>北京南开戈德信息技术有限公司</t>
+  </si>
+  <si>
+    <t>施总</t>
+  </si>
+  <si>
+    <t>13566886652</t>
+  </si>
+  <si>
+    <t>北京海淀区</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>合并后测试1</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>第一条记录23456</t>
+  </si>
+  <si>
     <t>23456</t>
-  </si>
-  <si>
-    <t>北京南开戈德信息技术有限公司</t>
-  </si>
-  <si>
-    <t>施总</t>
-  </si>
-  <si>
-    <t>13566886652</t>
-  </si>
-  <si>
-    <t>北京海淀区</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>北京易瑞盈商贸有限公司</t>
-  </si>
-  <si>
-    <t>周华农</t>
-  </si>
-  <si>
-    <t>13925668956</t>
-  </si>
-  <si>
-    <t>北京市丰台区大井东里</t>
-  </si>
-  <si>
-    <t>第一条记录</t>
-  </si>
-  <si>
-    <t>第一条记录23456</t>
-  </si>
-  <si>
-    <t>天津华新有限公司</t>
-  </si>
-  <si>
-    <t>李先生</t>
-  </si>
-  <si>
-    <t>13555278856</t>
-  </si>
-  <si>
-    <t>南开</t>
-  </si>
-  <si>
-    <t>合并后测试</t>
-  </si>
-  <si>
-    <t>广东电子测试有限公司</t>
-  </si>
-  <si>
-    <t>章先生</t>
-  </si>
-  <si>
-    <t>12345688996</t>
-  </si>
-  <si>
-    <t>北京海淀</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>合并后测试1</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
@@ -601,24 +604,24 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
@@ -628,51 +631,51 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -680,135 +683,135 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
-        <v>6</v>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>6</v>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
@@ -818,51 +821,51 @@
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>编号</t>
   </si>
@@ -50,120 +50,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>天津鼎传码行工作室</t>
-  </si>
-  <si>
-    <t>周先生</t>
-  </si>
-  <si>
-    <t>13920953285</t>
-  </si>
-  <si>
-    <t>天津南开</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>极好</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>广东电子测试有限公司</t>
-  </si>
-  <si>
-    <t>章先生</t>
-  </si>
-  <si>
-    <t>12345688996</t>
-  </si>
-  <si>
-    <t>北京海淀</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>天津华新有限公司</t>
-  </si>
-  <si>
-    <t>李先生</t>
-  </si>
-  <si>
-    <t>13555278856</t>
-  </si>
-  <si>
-    <t>南开</t>
-  </si>
-  <si>
-    <t>较差</t>
-  </si>
-  <si>
-    <t>合并后测试</t>
-  </si>
-  <si>
-    <t>北京易瑞盈商贸有限公司</t>
-  </si>
-  <si>
-    <t>周华农</t>
-  </si>
-  <si>
-    <t>13925668956</t>
-  </si>
-  <si>
-    <t>北京市丰台区大井东里</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>第一条记录</t>
-  </si>
-  <si>
-    <t>北京南开戈德信息技术有限公司</t>
-  </si>
-  <si>
-    <t>施总</t>
-  </si>
-  <si>
-    <t>13566886652</t>
-  </si>
-  <si>
-    <t>北京海淀区</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>合并后测试1</t>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>第一条记录23456</t>
-  </si>
-  <si>
-    <t>23456</t>
   </si>
 </sst>
 </file>
@@ -509,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,307 +453,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>编号</t>
   </si>
@@ -37,12 +37,12 @@
     <t>含税</t>
   </si>
   <si>
-    <t>优惠折扣</t>
-  </si>
-  <si>
     <t>信用评价</t>
   </si>
   <si>
+    <t>简称</t>
+  </si>
+  <si>
     <t>地区</t>
   </si>
   <si>
@@ -52,6 +52,33 @@
     <t>备注</t>
   </si>
   <si>
+    <t>北京易瑞盈商贸有限公司</t>
+  </si>
+  <si>
+    <t>周华农</t>
+  </si>
+  <si>
+    <t>13925668956</t>
+  </si>
+  <si>
+    <t>北京市丰台区大井东里</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>极好</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>第一条记录</t>
+  </si>
+  <si>
     <t>天津鼎传码行工作室</t>
   </si>
   <si>
@@ -64,22 +91,67 @@
     <t>天津南开</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>极好</t>
-  </si>
-  <si>
     <t>天津</t>
   </si>
   <si>
-    <t>否</t>
+    <t>23456</t>
+  </si>
+  <si>
+    <t>北京南开戈德信息技术有限公司</t>
+  </si>
+  <si>
+    <t>施总</t>
+  </si>
+  <si>
+    <t>13566886652</t>
+  </si>
+  <si>
+    <t>北京海淀区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 南开戈德</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>合并后测试1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京易瑞盈</t>
+  </si>
+  <si>
+    <t>第一条记录23456</t>
+  </si>
+  <si>
+    <t>天津华新有限公司</t>
+  </si>
+  <si>
+    <t>李先生</t>
+  </si>
+  <si>
+    <t>13555278856</t>
+  </si>
+  <si>
+    <t>南开</t>
+  </si>
+  <si>
+    <t>较差</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天津华新</t>
+  </si>
+  <si>
+    <t>合并后测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天津鼎传</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>广东电子测试有限公司</t>
@@ -94,67 +166,13 @@
     <t>北京海淀</t>
   </si>
   <si>
+    <t xml:space="preserve"> 广东电子</t>
+  </si>
+  <si>
     <t>广东</t>
   </si>
   <si>
     <t>测试</t>
-  </si>
-  <si>
-    <t>天津华新有限公司</t>
-  </si>
-  <si>
-    <t>李先生</t>
-  </si>
-  <si>
-    <t>13555278856</t>
-  </si>
-  <si>
-    <t>南开</t>
-  </si>
-  <si>
-    <t>较差</t>
-  </si>
-  <si>
-    <t>合并后测试</t>
-  </si>
-  <si>
-    <t>北京易瑞盈商贸有限公司</t>
-  </si>
-  <si>
-    <t>周华农</t>
-  </si>
-  <si>
-    <t>13925668956</t>
-  </si>
-  <si>
-    <t>北京市丰台区大井东里</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>第一条记录</t>
-  </si>
-  <si>
-    <t>北京南开戈德信息技术有限公司</t>
-  </si>
-  <si>
-    <t>施总</t>
-  </si>
-  <si>
-    <t>13566886652</t>
-  </si>
-  <si>
-    <t>北京海淀区</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>合并后测试1</t>
   </si>
 </sst>
 </file>
@@ -500,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,7 +532,7 @@
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
@@ -560,7 +578,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -583,49 +601,46 @@
       <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
         <v>27</v>
@@ -633,7 +648,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -651,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -660,10 +675,10 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
         <v>33</v>
@@ -671,78 +686,192 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/download/客户.xlsx
+++ b/download/客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>编号</t>
   </si>
@@ -28,30 +28,69 @@
     <t>电话</t>
   </si>
   <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>税率</t>
-  </si>
-  <si>
-    <t>含税</t>
+    <t>公司地址</t>
+  </si>
+  <si>
+    <t>收货地址</t>
+  </si>
+  <si>
+    <t>简称</t>
   </si>
   <si>
     <t>信用评价</t>
   </si>
   <si>
-    <t>简称</t>
-  </si>
-  <si>
-    <t>地区</t>
-  </si>
-  <si>
     <t>停用</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
+    <t>天津鼎传码行工作室</t>
+  </si>
+  <si>
+    <t>周先生</t>
+  </si>
+  <si>
+    <t>13920953285</t>
+  </si>
+  <si>
+    <t>天津南开</t>
+  </si>
+  <si>
+    <t>极好</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>23456</t>
+  </si>
+  <si>
+    <t>北京南开戈德信息技术有限公司</t>
+  </si>
+  <si>
+    <t>施总</t>
+  </si>
+  <si>
+    <t>13566886652</t>
+  </si>
+  <si>
+    <t>北京海淀区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 南开戈德</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>合并后测试1</t>
+  </si>
+  <si>
     <t>北京易瑞盈商贸有限公司</t>
   </si>
   <si>
@@ -64,115 +103,58 @@
     <t>北京市丰台区大井东里</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>极好</t>
-  </si>
-  <si>
-    <t>北京</t>
+    <t xml:space="preserve"> 北京易瑞盈</t>
+  </si>
+  <si>
+    <t>第一条记录23456</t>
+  </si>
+  <si>
+    <t>天津华新有限公司</t>
+  </si>
+  <si>
+    <t>李先生</t>
+  </si>
+  <si>
+    <t>13555278856</t>
+  </si>
+  <si>
+    <t>南开</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天津华新</t>
+  </si>
+  <si>
+    <t>较差</t>
+  </si>
+  <si>
+    <t>合并后测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天津鼎传</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>广东电子测试有限公司</t>
+  </si>
+  <si>
+    <t>章先生</t>
+  </si>
+  <si>
+    <t>12345688996</t>
+  </si>
+  <si>
+    <t>北京海淀</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 广东电子</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
   <si>
     <t>第一条记录</t>
-  </si>
-  <si>
-    <t>天津鼎传码行工作室</t>
-  </si>
-  <si>
-    <t>周先生</t>
-  </si>
-  <si>
-    <t>13920953285</t>
-  </si>
-  <si>
-    <t>天津南开</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>23456</t>
-  </si>
-  <si>
-    <t>北京南开戈德信息技术有限公司</t>
-  </si>
-  <si>
-    <t>施总</t>
-  </si>
-  <si>
-    <t>13566886652</t>
-  </si>
-  <si>
-    <t>北京海淀区</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 南开戈德</t>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>合并后测试1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 北京易瑞盈</t>
-  </si>
-  <si>
-    <t>第一条记录23456</t>
-  </si>
-  <si>
-    <t>天津华新有限公司</t>
-  </si>
-  <si>
-    <t>李先生</t>
-  </si>
-  <si>
-    <t>13555278856</t>
-  </si>
-  <si>
-    <t>南开</t>
-  </si>
-  <si>
-    <t>较差</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 天津华新</t>
-  </si>
-  <si>
-    <t>合并后测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 天津鼎传</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>广东电子测试有限公司</t>
-  </si>
-  <si>
-    <t>章先生</t>
-  </si>
-  <si>
-    <t>12345688996</t>
-  </si>
-  <si>
-    <t>北京海淀</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 广东电子</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>测试</t>
   </si>
 </sst>
 </file>
@@ -518,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,16 +511,14 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,309 +549,234 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="J9" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
